--- a/Documents/PROJECT - Development Plan - CS521(G) - Group 1.xlsx
+++ b/Documents/PROJECT - Development Plan - CS521(G) - Group 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="14745" windowHeight="8070" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="14745" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="Resource" sheetId="1" r:id="rId1"/>
@@ -258,15 +258,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>Pallavi David</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>documentation</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liang Zhao</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -457,30 +449,14 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>Harish Annam</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Navyasri Nimmala</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Development </t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>Roshanbhai Patel</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Requirement document completed </t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>Jaanu</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>Architecture defined</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -498,6 +474,30 @@
   </si>
   <si>
     <t>Deployment is completed</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Navyasri Nimmala 18455</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harish Annam  13788</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pallavi David 13402</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roshanbhai Patel 18137</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liang Zhao 15247</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sai Srujana 16434</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1463,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>57</v>
@@ -1519,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
@@ -1536,10 +1536,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E7" s="10">
         <v>20</v>
@@ -1553,10 +1553,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="10">
         <v>20</v>
@@ -1570,16 +1570,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" s="10">
         <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1587,10 +1587,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" s="10">
         <v>20</v>
@@ -1697,11 +1697,11 @@
     <row r="3" spans="1:13" ht="14.25" thickBot="1"/>
     <row r="4" spans="1:13" ht="20.25">
       <c r="A4" s="83" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="83"/>
       <c r="C4" s="92" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="92"/>
       <c r="E4" s="92"/>
@@ -1740,7 +1740,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>32</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="8" spans="1:13" s="59" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="14"/>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="12" spans="1:13" s="59" customFormat="1">
       <c r="A12" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="60"/>
       <c r="C12" s="13"/>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="13" spans="1:13" s="59" customFormat="1">
       <c r="A13" s="76" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B13" s="63"/>
       <c r="C13" s="15">
@@ -1924,7 +1924,7 @@
     </row>
     <row r="14" spans="1:13" s="59" customFormat="1">
       <c r="A14" s="76" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B14" s="63"/>
       <c r="C14" s="15">
@@ -1971,7 +1971,7 @@
     </row>
     <row r="16" spans="1:13" s="59" customFormat="1">
       <c r="A16" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="60"/>
       <c r="C16" s="11"/>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="17" spans="1:13" s="59" customFormat="1">
       <c r="A17" s="77" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B17" s="62"/>
       <c r="C17" s="14">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="40">
-        <f t="shared" ref="G17:G20" si="4">D17*F17</f>
+        <f t="shared" ref="G17" si="4">D17*F17</f>
         <v>0</v>
       </c>
       <c r="H17" s="51"/>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="18" spans="1:13" s="59" customFormat="1">
       <c r="A18" s="77" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B18" s="62"/>
       <c r="C18" s="14">
@@ -2102,7 +2102,7 @@
     </row>
     <row r="23" spans="1:13" s="59" customFormat="1">
       <c r="A23" s="77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" s="62"/>
       <c r="C23" s="14">
@@ -2132,7 +2132,7 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="29">
-        <f t="shared" ref="E23:E26" si="7">A24*D24</f>
+        <f t="shared" ref="E24:E26" si="7">A24*D24</f>
         <v>0</v>
       </c>
       <c r="F24" s="39"/>
@@ -2267,8 +2267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2314,14 +2314,14 @@
         <v>1</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" s="81"/>
       <c r="E6" s="81" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F6" s="81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -2333,10 +2333,10 @@
       </c>
       <c r="D7" s="81"/>
       <c r="E7" s="81" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" s="81" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -2360,11 +2360,11 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -2373,14 +2373,14 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F11" s="78" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -2388,11 +2388,11 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -2401,11 +2401,11 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -2414,11 +2414,11 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -2427,11 +2427,11 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -2440,11 +2440,11 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D19" s="81"/>
       <c r="E19" s="81" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F19" s="81"/>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="D20" s="81"/>
       <c r="E20" s="81" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F20" s="81"/>
     </row>
@@ -2564,14 +2564,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -2580,14 +2580,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -2596,14 +2596,14 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -2754,7 +2754,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6" s="74" t="s">
         <v>19</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="7" spans="2:17">
       <c r="B7" s="71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="70">
         <v>7</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="8" spans="2:17">
       <c r="B8" s="71" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="70">
         <v>7</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="9" spans="2:17">
       <c r="B9" s="71" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" s="70">
         <v>7</v>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="71" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="70">
         <v>14</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="11" spans="2:17">
       <c r="B11" s="71" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" s="70">
         <v>7</v>
